--- a/assets/cursos/EP/LOQ4223.xlsx
+++ b/assets/cursos/EP/LOQ4223.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="42">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -58,7 +58,7 @@
     <t>Ativação:</t>
   </si>
   <si>
-    <t>01/01/2018</t>
+    <t>01/01/2021</t>
   </si>
   <si>
     <t>Semestre ideal:</t>
@@ -100,39 +100,40 @@
     <t>Programa:</t>
   </si>
   <si>
-    <t>1. Teoria dos Sistemas.1.1. Conceitos Básicos sobre Teoria dos Sistemas;1.2. Abordagem Sistêmica;1.3. Classificação dos Sistemas;1.4. Ciclo de Vida dos Sistemas;2. Processo de Modelagem de Sistemas.2.1. Modelo Formal;2.2. Modelo Computacional;2.3. Teoria dos Modelos;3. Modelagem para Simulação3.1. Modelagem Discreta;3.2. Modelagem Orientada a Eventos;4. Linguagens de Simulação.5. Aspectos Estatísticos da Simulação de Sistemas.5.1. Geradores de Números Aleatórios;5.2. Geração de Variáveis Aleatórias;5.3. Inferência Estatística;5.4. Problemas Estatísticos Relacionados com Simulação;6. Validação de Modelos.6.1. Planejamento de Experimentos;6.2. Análise de Confiabilidade;</t>
+    <t>1. Teoria dos Sistemas. 1.1. Conceitos Básicos sobre Teoria dos Sistemas;1.2. Abordagem Sistêmica; 1.3. Classificação dos Sistemas; 1.4. Ciclo de Vida dos Sistemas; 2. Processo de Modelagem de Sistemas. 2.1. Modelo Formal; 2.2. Modelo Computacional; 2.3. Teoria dos Modelos; 3. Modelagem para Simulação 3.1. Modelagem Discreta; 3.2. Modelagem Orientada a Eventos; 4. Linguagens de Simulação. 5. Aspectos Estatísticos da Simulação de Sistemas. 5.1. Geradores de Números Aleatórios; 5.2. Geração de Variáveis Aleatórias; 5.3. Inferência Estatística; 5.4. Problemas Estatísticos Relacionados com Simulação; 6. Validação de Modelos.</t>
   </si>
   <si>
     <t>Syllabus:</t>
   </si>
   <si>
+    <t>1. Systems Theory.1.1. Basic Concepts on Systems Theory;1.2. Systemic Approach;1.3. Classification of Systems;1.4. Systems Life Cycle;2. System Modeling Process.2.1. Formal Model;2.2. Computational Model;2.3. Theory of Models;3. Modeling for Simulation3.1. Discrete Modeling;3.2. Event-Driven Modeling;4. Simulation Languages.5. Statistical Aspects of Systems Simulation.5.1. Random Number Generators;5.2. Generation of Random Variables;5.3. Statistical inference;5.4. Statistical Problems Related to Simulation;6. Validation of Models.</t>
+  </si>
+  <si>
     <t>Avaliação:</t>
   </si>
   <si>
     <t>Método:</t>
   </si>
   <si>
-    <t>Aulas expositivas teóricas, aulas práticas, aulas de laboratório, aulas de exercícios</t>
+    <t>NF=A avaliação será composta por provas, listas, projetos, seminários e outras formas que farão a composição das notas, sendo estipulada a média final a somatória destas notas (N), com no mínimo duas avaliações, sendo: (N1+...+Nn)/n.</t>
   </si>
   <si>
     <t>Critério:</t>
   </si>
   <si>
-    <t>MF = (0,5*P + 0,5*T), onde P é uma prova e T é um trabalho.</t>
+    <t>NF≥ 5,0.</t>
   </si>
   <si>
     <t>Norma de recuperação:</t>
   </si>
   <si>
-    <t>Média aritmética da nota final obtida pelo aluno durante o semestre e da nota obtida na Prova de Recuperação.</t>
+    <t>(NF+RC)/2 ≥ 5,0, onde RC é uma prova de recuperação a ser aplicada.</t>
   </si>
   <si>
     <t>Bibliografia:</t>
   </si>
   <si>
-    <t>1. BANKS, J., CARSON, J.S., Discrete-Event System Simulation., Printice Hall, 2000.
-2. PRADO, D., Utilizando o Arena em Simulação, Editora INDG, 2ª ed., 2004.
-3. LAW, A.M., KELTON, W.D., Simulation Modeling and Analysis., McGraw Hill, 1999.</t>
+    <t>1. BANKS, J., CARSON, J.S., “Discrete-Event System Simulation.”, Printice Hall, 2000.2. CHWIF, L., MEDINA, A.C. e col. “Introdução ao Simul8: um guia prático”, Livro Eletrônico, 1ª ed., 2015.3. Fishman, G.S. “Discrete-Event Simulation: Modeling, Programming, and Analysis”, Springer-Verlag, 2001.</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -672,72 +673,72 @@
         <v>29</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="60" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="120" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="30" customHeight="1">
       <c r="B24" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
